--- a/Projekt/ipcim.xlsx
+++ b/Projekt/ipcim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\11.o\IKTp\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CB518-5C2E-4685-A491-8A5093494E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F941A1-A485-41A5-B0C4-669C576E4A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{F87F5BA3-734A-4536-99D1-CBBF5267F1EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F87F5BA3-734A-4536-99D1-CBBF5267F1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>185.62.128.0 /22</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>• Szeged-Net hálózat 12 számítógép, 2 nyomtató, egy TFTP szerver.</t>
+  </si>
+  <si>
+    <t>Budapest-net: 58 IP cím, például 185.62.128.32/27 (32-95)</t>
+  </si>
+  <si>
+    <t>Kecskemét-Net: 28 IP cím, például 185.62.128.96/27 (96-123)</t>
+  </si>
+  <si>
+    <t>Szeged-Net: 12 IP cím, például 185.62.128.128/28 (128-139)</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budapest-net </t>
+  </si>
+  <si>
+    <t>(32-95)</t>
+  </si>
+  <si>
+    <t>Kecskemét-net</t>
   </si>
 </sst>
 </file>
@@ -408,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C280C-8502-48CC-BD49-5F4ABB896A08}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,12 +448,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -455,7 +476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>DEC2BIN(B4,8)</f>
         <v>10111001</v>
@@ -473,7 +494,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -489,20 +510,11 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>185</v>
-      </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="I7">
-        <v>128</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>BIN2DEC(B7)</f>
         <v>255</v>
@@ -519,8 +531,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -535,6 +555,34 @@
       </c>
       <c r="E10">
         <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>185</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>128</v>
+      </c>
+      <c r="L11">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/ipcim.xlsx
+++ b/Projekt/ipcim.xlsx
@@ -1,88 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\11.o\IKTp\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halász Noel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F941A1-A485-41A5-B0C4-669C576E4A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279C9B5-1BD7-4097-957A-EBA7867418E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F87F5BA3-734A-4536-99D1-CBBF5267F1EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
-    <t>185.62.128.0 /22</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>/22</t>
-  </si>
-  <si>
-    <t>Hálózat</t>
-  </si>
-  <si>
-    <t>Maszk</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>Broadcast</t>
-  </si>
-  <si>
-    <t>• Budapest-net hálózat 58 számítógép, 2 nyomtató, egy HTTP szerver.</t>
-  </si>
-  <si>
-    <t>• Kecskemét-Net hálózat 28 számítógép, 2 nyomtató.</t>
-  </si>
-  <si>
-    <t>• Szeged-Net hálózat 12 számítógép, 2 nyomtató, egy TFTP szerver.</t>
-  </si>
-  <si>
-    <t>Budapest-net: 58 IP cím, például 185.62.128.32/27 (32-95)</t>
-  </si>
-  <si>
-    <t>Kecskemét-Net: 28 IP cím, például 185.62.128.96/27 (96-123)</t>
-  </si>
-  <si>
-    <t>Szeged-Net: 12 IP cím, például 185.62.128.128/28 (128-139)</t>
-  </si>
-  <si>
-    <t>/27</t>
+    <t>IKT Projekt - 2023 Ábel Dávid, Halász Noel, Maska Máté</t>
   </si>
   <si>
     <t xml:space="preserve">Budapest-net </t>
   </si>
   <si>
-    <t>(32-95)</t>
+    <t>/27  (32-95)</t>
+  </si>
+  <si>
+    <t>Eszköz</t>
   </si>
   <si>
     <t>Kecskemét-net</t>
+  </si>
+  <si>
+    <t>/27 (96-123)</t>
+  </si>
+  <si>
+    <t>Szeged-net</t>
+  </si>
+  <si>
+    <t>/28  (128-139)</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>PC 3</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Rendszergazda PC</t>
+  </si>
+  <si>
+    <t>PC 4</t>
+  </si>
+  <si>
+    <t>PC 2</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>PC 5</t>
+  </si>
+  <si>
+    <t>PC 1</t>
+  </si>
+  <si>
+    <t>HTTP Server</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Routerek</t>
+  </si>
+  <si>
+    <t>R-BP</t>
+  </si>
+  <si>
+    <t>R-SZEGED</t>
+  </si>
+  <si>
+    <t>R-KECSKEMÉT</t>
+  </si>
+  <si>
+    <t>R-SZOLNOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +123,37 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -108,13 +161,450 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -428,164 +918,1608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C280C-8502-48CC-BD49-5F4ABB896A08}">
-  <dimension ref="A2:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:17" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+      <c r="Q3" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="G4" s="22">
+        <v>185</v>
+      </c>
+      <c r="H4" s="19">
+        <v>62</v>
+      </c>
+      <c r="I4" s="19">
+        <v>128</v>
+      </c>
+      <c r="J4" s="16">
+        <v>96</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="M4" s="25">
+        <v>185</v>
+      </c>
+      <c r="N4" s="26">
+        <v>62</v>
+      </c>
+      <c r="O4" s="26">
+        <v>128</v>
+      </c>
+      <c r="P4" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>185</v>
+      </c>
+      <c r="B5" s="5">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5">
+        <v>128</v>
+      </c>
+      <c r="D5" s="6">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>185</v>
-      </c>
-      <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4">
-        <v>128</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" s="23">
+        <v>185</v>
+      </c>
+      <c r="H5" s="20">
+        <v>62</v>
+      </c>
+      <c r="I5" s="20">
+        <v>128</v>
+      </c>
+      <c r="J5" s="17">
+        <v>97</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>DEC2BIN(B4,8)</f>
-        <v>10111001</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:E5" si="0">DEC2BIN(C4,8)</f>
-        <v>00111110</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="M5" s="27">
+        <v>185</v>
+      </c>
+      <c r="N5" s="28">
+        <v>62</v>
+      </c>
+      <c r="O5" s="28">
+        <v>128</v>
+      </c>
+      <c r="P5" s="6">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>185</v>
+      </c>
+      <c r="B6" s="5">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5">
+        <v>128</v>
+      </c>
+      <c r="D6" s="6">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="23">
+        <v>185</v>
+      </c>
+      <c r="H6" s="20">
+        <v>62</v>
+      </c>
+      <c r="I6" s="20">
+        <v>128</v>
+      </c>
+      <c r="J6" s="17">
+        <v>98</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="27">
+        <v>185</v>
+      </c>
+      <c r="N6" s="28">
+        <v>62</v>
+      </c>
+      <c r="O6" s="28">
+        <v>128</v>
+      </c>
+      <c r="P6" s="6">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>185</v>
+      </c>
+      <c r="B7" s="5">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5">
+        <v>128</v>
+      </c>
+      <c r="D7" s="6">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="23">
+        <v>185</v>
+      </c>
+      <c r="H7" s="20">
+        <v>62</v>
+      </c>
+      <c r="I7" s="20">
+        <v>128</v>
+      </c>
+      <c r="J7" s="17">
+        <v>99</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="27">
+        <v>185</v>
+      </c>
+      <c r="N7" s="28">
+        <v>62</v>
+      </c>
+      <c r="O7" s="28">
+        <v>128</v>
+      </c>
+      <c r="P7" s="6">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>185</v>
+      </c>
+      <c r="B8" s="5">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
+        <v>128</v>
+      </c>
+      <c r="D8" s="6">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="23">
+        <v>185</v>
+      </c>
+      <c r="H8" s="20">
+        <v>62</v>
+      </c>
+      <c r="I8" s="20">
+        <v>128</v>
+      </c>
+      <c r="J8" s="17">
+        <v>100</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="27">
+        <v>185</v>
+      </c>
+      <c r="N8" s="28">
+        <v>62</v>
+      </c>
+      <c r="O8" s="28">
+        <v>128</v>
+      </c>
+      <c r="P8" s="6">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>185</v>
+      </c>
+      <c r="B9" s="5">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5">
+        <v>128</v>
+      </c>
+      <c r="D9" s="6">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="23">
+        <v>185</v>
+      </c>
+      <c r="H9" s="20">
+        <v>62</v>
+      </c>
+      <c r="I9" s="20">
+        <v>128</v>
+      </c>
+      <c r="J9" s="17">
+        <v>101</v>
+      </c>
+      <c r="M9" s="27">
+        <v>185</v>
+      </c>
+      <c r="N9" s="28">
+        <v>62</v>
+      </c>
+      <c r="O9" s="28">
+        <v>128</v>
+      </c>
+      <c r="P9" s="6">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>185</v>
+      </c>
+      <c r="B10" s="5">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5">
+        <v>128</v>
+      </c>
+      <c r="D10" s="6">
+        <v>38</v>
+      </c>
+      <c r="G10" s="23">
+        <v>185</v>
+      </c>
+      <c r="H10" s="20">
+        <v>62</v>
+      </c>
+      <c r="I10" s="20">
+        <v>128</v>
+      </c>
+      <c r="J10" s="17">
+        <v>102</v>
+      </c>
+      <c r="M10" s="27">
+        <v>185</v>
+      </c>
+      <c r="N10" s="28">
+        <v>62</v>
+      </c>
+      <c r="O10" s="28">
+        <v>128</v>
+      </c>
+      <c r="P10" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>185</v>
+      </c>
+      <c r="B11" s="5">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6">
+        <v>39</v>
+      </c>
+      <c r="G11" s="23">
+        <v>185</v>
+      </c>
+      <c r="H11" s="20">
+        <v>62</v>
+      </c>
+      <c r="I11" s="20">
+        <v>128</v>
+      </c>
+      <c r="J11" s="17">
+        <v>103</v>
+      </c>
+      <c r="M11" s="27">
+        <v>185</v>
+      </c>
+      <c r="N11" s="28">
+        <v>62</v>
+      </c>
+      <c r="O11" s="28">
+        <v>128</v>
+      </c>
+      <c r="P11" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>185</v>
+      </c>
+      <c r="B12" s="5">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>128</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40</v>
+      </c>
+      <c r="G12" s="23">
+        <v>185</v>
+      </c>
+      <c r="H12" s="20">
+        <v>62</v>
+      </c>
+      <c r="I12" s="20">
+        <v>128</v>
+      </c>
+      <c r="J12" s="17">
+        <v>104</v>
+      </c>
+      <c r="M12" s="27">
+        <v>185</v>
+      </c>
+      <c r="N12" s="28">
+        <v>62</v>
+      </c>
+      <c r="O12" s="28">
+        <v>128</v>
+      </c>
+      <c r="P12" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>185</v>
+      </c>
+      <c r="B13" s="5">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5">
+        <v>128</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41</v>
+      </c>
+      <c r="G13" s="23">
+        <v>185</v>
+      </c>
+      <c r="H13" s="20">
+        <v>62</v>
+      </c>
+      <c r="I13" s="20">
+        <v>128</v>
+      </c>
+      <c r="J13" s="17">
+        <v>105</v>
+      </c>
+      <c r="M13" s="27">
+        <v>185</v>
+      </c>
+      <c r="N13" s="28">
+        <v>62</v>
+      </c>
+      <c r="O13" s="28">
+        <v>128</v>
+      </c>
+      <c r="P13" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>185</v>
+      </c>
+      <c r="B14" s="5">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42</v>
+      </c>
+      <c r="G14" s="23">
+        <v>185</v>
+      </c>
+      <c r="H14" s="20">
+        <v>62</v>
+      </c>
+      <c r="I14" s="20">
+        <v>128</v>
+      </c>
+      <c r="J14" s="17">
+        <v>106</v>
+      </c>
+      <c r="M14" s="27">
+        <v>185</v>
+      </c>
+      <c r="N14" s="28">
+        <v>62</v>
+      </c>
+      <c r="O14" s="28">
+        <v>128</v>
+      </c>
+      <c r="P14" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>185</v>
+      </c>
+      <c r="B15" s="5">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43</v>
+      </c>
+      <c r="G15" s="23">
+        <v>185</v>
+      </c>
+      <c r="H15" s="20">
+        <v>62</v>
+      </c>
+      <c r="I15" s="20">
+        <v>128</v>
+      </c>
+      <c r="J15" s="17">
+        <v>107</v>
+      </c>
+      <c r="M15" s="29">
+        <v>185</v>
+      </c>
+      <c r="N15" s="30">
+        <v>62</v>
+      </c>
+      <c r="O15" s="30">
+        <v>128</v>
+      </c>
+      <c r="P15" s="9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>185</v>
+      </c>
+      <c r="B16" s="5">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>128</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44</v>
+      </c>
+      <c r="G16" s="23">
+        <v>185</v>
+      </c>
+      <c r="H16" s="20">
+        <v>62</v>
+      </c>
+      <c r="I16" s="20">
+        <v>128</v>
+      </c>
+      <c r="J16" s="17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>185</v>
+      </c>
+      <c r="B17" s="5">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45</v>
+      </c>
+      <c r="G17" s="23">
+        <v>185</v>
+      </c>
+      <c r="H17" s="20">
+        <v>62</v>
+      </c>
+      <c r="I17" s="20">
+        <v>128</v>
+      </c>
+      <c r="J17" s="17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>185</v>
+      </c>
+      <c r="B18" s="5">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5">
+        <v>128</v>
+      </c>
+      <c r="D18" s="6">
+        <v>46</v>
+      </c>
+      <c r="G18" s="23">
+        <v>185</v>
+      </c>
+      <c r="H18" s="20">
+        <v>62</v>
+      </c>
+      <c r="I18" s="20">
+        <v>128</v>
+      </c>
+      <c r="J18" s="17">
+        <v>110</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>185</v>
+      </c>
+      <c r="B19" s="5">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5">
+        <v>128</v>
+      </c>
+      <c r="D19" s="6">
+        <v>47</v>
+      </c>
+      <c r="G19" s="23">
+        <v>185</v>
+      </c>
+      <c r="H19" s="20">
+        <v>62</v>
+      </c>
+      <c r="I19" s="20">
+        <v>128</v>
+      </c>
+      <c r="J19" s="17">
+        <v>111</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="31">
+        <v>185</v>
+      </c>
+      <c r="N19" s="19">
+        <v>62</v>
+      </c>
+      <c r="O19" s="2">
+        <v>128</v>
+      </c>
+      <c r="P19" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>185</v>
+      </c>
+      <c r="B20" s="5">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>128</v>
+      </c>
+      <c r="D20" s="6">
+        <v>48</v>
+      </c>
+      <c r="G20" s="23">
+        <v>185</v>
+      </c>
+      <c r="H20" s="20">
+        <v>62</v>
+      </c>
+      <c r="I20" s="20">
+        <v>128</v>
+      </c>
+      <c r="J20" s="17">
+        <v>112</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="32">
+        <v>185</v>
+      </c>
+      <c r="N20" s="20">
+        <v>62</v>
+      </c>
+      <c r="O20" s="5">
+        <v>128</v>
+      </c>
+      <c r="P20" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>185</v>
+      </c>
+      <c r="B21" s="5">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5">
+        <v>128</v>
+      </c>
+      <c r="D21" s="6">
+        <v>49</v>
+      </c>
+      <c r="G21" s="23">
+        <v>185</v>
+      </c>
+      <c r="H21" s="20">
+        <v>62</v>
+      </c>
+      <c r="I21" s="20">
+        <v>128</v>
+      </c>
+      <c r="J21" s="17">
+        <v>113</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="32">
+        <v>185</v>
+      </c>
+      <c r="N21" s="20">
+        <v>62</v>
+      </c>
+      <c r="O21" s="5">
+        <v>128</v>
+      </c>
+      <c r="P21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>185</v>
+      </c>
+      <c r="B22" s="5">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5">
+        <v>128</v>
+      </c>
+      <c r="D22" s="6">
+        <v>50</v>
+      </c>
+      <c r="G22" s="23">
+        <v>185</v>
+      </c>
+      <c r="H22" s="20">
+        <v>62</v>
+      </c>
+      <c r="I22" s="20">
+        <v>128</v>
+      </c>
+      <c r="J22" s="17">
+        <v>114</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="33">
+        <v>185</v>
+      </c>
+      <c r="N22" s="21">
+        <v>62</v>
+      </c>
+      <c r="O22" s="8">
+        <v>128</v>
+      </c>
+      <c r="P22" s="9">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>11111111</v>
-      </c>
-      <c r="C7">
-        <v>11111111</v>
-      </c>
-      <c r="D7">
-        <v>11111100</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>BIN2DEC(B7)</f>
-        <v>255</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:E8" si="1">BIN2DEC(C7)</f>
-        <v>255</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>185</v>
-      </c>
-      <c r="C10">
-        <v>62</v>
-      </c>
-      <c r="D10">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11">
-        <v>185</v>
-      </c>
-      <c r="J11">
-        <v>62</v>
-      </c>
-      <c r="K11">
-        <v>128</v>
-      </c>
-      <c r="L11">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>185</v>
+      </c>
+      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6">
+        <v>51</v>
+      </c>
+      <c r="G23" s="23">
+        <v>185</v>
+      </c>
+      <c r="H23" s="20">
+        <v>62</v>
+      </c>
+      <c r="I23" s="20">
+        <v>128</v>
+      </c>
+      <c r="J23" s="17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>185</v>
+      </c>
+      <c r="B24" s="5">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5">
+        <v>128</v>
+      </c>
+      <c r="D24" s="6">
+        <v>52</v>
+      </c>
+      <c r="G24" s="23">
+        <v>185</v>
+      </c>
+      <c r="H24" s="20">
+        <v>62</v>
+      </c>
+      <c r="I24" s="20">
+        <v>128</v>
+      </c>
+      <c r="J24" s="17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>185</v>
+      </c>
+      <c r="B25" s="5">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5">
+        <v>128</v>
+      </c>
+      <c r="D25" s="6">
+        <v>53</v>
+      </c>
+      <c r="G25" s="23">
+        <v>185</v>
+      </c>
+      <c r="H25" s="20">
+        <v>62</v>
+      </c>
+      <c r="I25" s="20">
+        <v>128</v>
+      </c>
+      <c r="J25" s="17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>185</v>
+      </c>
+      <c r="B26" s="5">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>128</v>
+      </c>
+      <c r="D26" s="6">
+        <v>54</v>
+      </c>
+      <c r="G26" s="23">
+        <v>185</v>
+      </c>
+      <c r="H26" s="20">
+        <v>62</v>
+      </c>
+      <c r="I26" s="20">
+        <v>128</v>
+      </c>
+      <c r="J26" s="17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>185</v>
+      </c>
+      <c r="B27" s="5">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6">
+        <v>55</v>
+      </c>
+      <c r="G27" s="23">
+        <v>185</v>
+      </c>
+      <c r="H27" s="20">
+        <v>62</v>
+      </c>
+      <c r="I27" s="20">
+        <v>128</v>
+      </c>
+      <c r="J27" s="17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>185</v>
+      </c>
+      <c r="B28" s="5">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6">
+        <v>56</v>
+      </c>
+      <c r="G28" s="23">
+        <v>185</v>
+      </c>
+      <c r="H28" s="20">
+        <v>62</v>
+      </c>
+      <c r="I28" s="20">
+        <v>128</v>
+      </c>
+      <c r="J28" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>185</v>
+      </c>
+      <c r="B29" s="5">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>128</v>
+      </c>
+      <c r="D29" s="6">
+        <v>57</v>
+      </c>
+      <c r="G29" s="23">
+        <v>185</v>
+      </c>
+      <c r="H29" s="20">
+        <v>62</v>
+      </c>
+      <c r="I29" s="20">
+        <v>128</v>
+      </c>
+      <c r="J29" s="17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>185</v>
+      </c>
+      <c r="B30" s="5">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5">
+        <v>128</v>
+      </c>
+      <c r="D30" s="6">
+        <v>58</v>
+      </c>
+      <c r="G30" s="23">
+        <v>185</v>
+      </c>
+      <c r="H30" s="20">
+        <v>62</v>
+      </c>
+      <c r="I30" s="20">
+        <v>128</v>
+      </c>
+      <c r="J30" s="17">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>185</v>
+      </c>
+      <c r="B31" s="5">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>128</v>
+      </c>
+      <c r="D31" s="6">
+        <v>59</v>
+      </c>
+      <c r="G31" s="24">
+        <v>185</v>
+      </c>
+      <c r="H31" s="21">
+        <v>62</v>
+      </c>
+      <c r="I31" s="21">
+        <v>128</v>
+      </c>
+      <c r="J31" s="18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>185</v>
+      </c>
+      <c r="B32" s="5">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <v>128</v>
+      </c>
+      <c r="D32" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>185</v>
+      </c>
+      <c r="B33" s="5">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>128</v>
+      </c>
+      <c r="D33" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>185</v>
+      </c>
+      <c r="B34" s="5">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5">
+        <v>128</v>
+      </c>
+      <c r="D34" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>185</v>
+      </c>
+      <c r="B35" s="5">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5">
+        <v>128</v>
+      </c>
+      <c r="D35" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>185</v>
+      </c>
+      <c r="B36" s="5">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5">
+        <v>128</v>
+      </c>
+      <c r="D36" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>185</v>
+      </c>
+      <c r="B37" s="5">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5">
+        <v>128</v>
+      </c>
+      <c r="D37" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>185</v>
+      </c>
+      <c r="B38" s="5">
+        <v>62</v>
+      </c>
+      <c r="C38" s="5">
+        <v>128</v>
+      </c>
+      <c r="D38" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>185</v>
+      </c>
+      <c r="B39" s="5">
+        <v>62</v>
+      </c>
+      <c r="C39" s="5">
+        <v>128</v>
+      </c>
+      <c r="D39" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>185</v>
+      </c>
+      <c r="B40" s="5">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>185</v>
+      </c>
+      <c r="B41" s="5">
+        <v>62</v>
+      </c>
+      <c r="C41" s="5">
+        <v>128</v>
+      </c>
+      <c r="D41" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>185</v>
+      </c>
+      <c r="B42" s="5">
+        <v>62</v>
+      </c>
+      <c r="C42" s="5">
+        <v>128</v>
+      </c>
+      <c r="D42" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>185</v>
+      </c>
+      <c r="B43" s="5">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5">
+        <v>128</v>
+      </c>
+      <c r="D43" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>185</v>
+      </c>
+      <c r="B44" s="5">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5">
+        <v>128</v>
+      </c>
+      <c r="D44" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>185</v>
+      </c>
+      <c r="B45" s="5">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5">
+        <v>128</v>
+      </c>
+      <c r="D45" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>185</v>
+      </c>
+      <c r="B46" s="5">
+        <v>62</v>
+      </c>
+      <c r="C46" s="5">
+        <v>128</v>
+      </c>
+      <c r="D46" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>185</v>
+      </c>
+      <c r="B47" s="5">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
+        <v>128</v>
+      </c>
+      <c r="D47" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>185</v>
+      </c>
+      <c r="B48" s="5">
+        <v>62</v>
+      </c>
+      <c r="C48" s="5">
+        <v>128</v>
+      </c>
+      <c r="D48" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>185</v>
+      </c>
+      <c r="B49" s="5">
+        <v>62</v>
+      </c>
+      <c r="C49" s="5">
+        <v>128</v>
+      </c>
+      <c r="D49" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>185</v>
+      </c>
+      <c r="B50" s="5">
+        <v>62</v>
+      </c>
+      <c r="C50" s="5">
+        <v>128</v>
+      </c>
+      <c r="D50" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>185</v>
+      </c>
+      <c r="B51" s="5">
+        <v>62</v>
+      </c>
+      <c r="C51" s="5">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>185</v>
+      </c>
+      <c r="B52" s="5">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5">
+        <v>128</v>
+      </c>
+      <c r="D52" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>185</v>
+      </c>
+      <c r="B53" s="5">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5">
+        <v>128</v>
+      </c>
+      <c r="D53" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>185</v>
+      </c>
+      <c r="B54" s="5">
+        <v>62</v>
+      </c>
+      <c r="C54" s="5">
+        <v>128</v>
+      </c>
+      <c r="D54" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>185</v>
+      </c>
+      <c r="B55" s="5">
+        <v>62</v>
+      </c>
+      <c r="C55" s="5">
+        <v>128</v>
+      </c>
+      <c r="D55" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>185</v>
+      </c>
+      <c r="B56" s="5">
+        <v>62</v>
+      </c>
+      <c r="C56" s="5">
+        <v>128</v>
+      </c>
+      <c r="D56" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>185</v>
+      </c>
+      <c r="B57" s="5">
+        <v>62</v>
+      </c>
+      <c r="C57" s="5">
+        <v>128</v>
+      </c>
+      <c r="D57" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>185</v>
+      </c>
+      <c r="B58" s="5">
+        <v>62</v>
+      </c>
+      <c r="C58" s="5">
+        <v>128</v>
+      </c>
+      <c r="D58" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>185</v>
+      </c>
+      <c r="B59" s="5">
+        <v>62</v>
+      </c>
+      <c r="C59" s="5">
+        <v>128</v>
+      </c>
+      <c r="D59" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>185</v>
+      </c>
+      <c r="B60" s="5">
+        <v>62</v>
+      </c>
+      <c r="C60" s="5">
+        <v>128</v>
+      </c>
+      <c r="D60" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>185</v>
+      </c>
+      <c r="B61" s="5">
+        <v>62</v>
+      </c>
+      <c r="C61" s="5">
+        <v>128</v>
+      </c>
+      <c r="D61" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>185</v>
+      </c>
+      <c r="B62" s="5">
+        <v>62</v>
+      </c>
+      <c r="C62" s="5">
+        <v>128</v>
+      </c>
+      <c r="D62" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>185</v>
+      </c>
+      <c r="B63" s="5">
+        <v>62</v>
+      </c>
+      <c r="C63" s="5">
+        <v>128</v>
+      </c>
+      <c r="D63" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>185</v>
+      </c>
+      <c r="B64" s="5">
+        <v>62</v>
+      </c>
+      <c r="C64" s="5">
+        <v>128</v>
+      </c>
+      <c r="D64" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>185</v>
+      </c>
+      <c r="B65" s="5">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5">
+        <v>128</v>
+      </c>
+      <c r="D65" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>185</v>
+      </c>
+      <c r="B66" s="5">
+        <v>62</v>
+      </c>
+      <c r="C66" s="5">
+        <v>128</v>
+      </c>
+      <c r="D66" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="7">
+        <v>185</v>
+      </c>
+      <c r="B67" s="8">
+        <v>62</v>
+      </c>
+      <c r="C67" s="8">
+        <v>128</v>
+      </c>
+      <c r="D67" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A1:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>